--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -708,6 +708,36 @@
   </si>
   <si>
     <t>get-copper-coins</t>
+  </si>
+  <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>These old Church records state that alchemy was apart of the Church in one way or another. It seems, if I can make out these musty old pages, that the Church tried to use Holy magic and Alchemy to create special types of candles.</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>This item will let you ignore the Leveling caps and gain XP faster.</t>
+  </si>
+  <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>This old ink was used to write enchantments on candles back when the Church was still a thing through out Tlessa, fanatical bunch if you ask me. They created these types of enchanted "Holy Inks" that only the elite could get their hands on. The Candle Maker might be able to make use of this.</t>
+  </si>
+  <si>
+    <t>Fanatics Candle of Despair</t>
+  </si>
+  <si>
+    <t>Well, I guess that ink you had found was a bit cursed. But this should still do the trick child. I think ...</t>
+  </si>
+  <si>
+    <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1073,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BF71"/>
+  <dimension ref="A1:BF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,7 +1084,7 @@
     <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="370" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
@@ -6074,6 +6104,157 @@
         <v>230</v>
       </c>
     </row>
+    <row r="72" spans="1:58">
+      <c r="D72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s">
+        <v>232</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE72">
+        <v>0.05</v>
+      </c>
+      <c r="BF72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>234</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0.95</v>
+      </c>
+      <c r="BF73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" t="s">
+        <v>236</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE74">
+        <v>0.15</v>
+      </c>
+      <c r="BF74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58">
+      <c r="D75" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>1.25</v>
+      </c>
+      <c r="BF75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
+      <c r="D76" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" t="s">
+        <v>240</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>1.6</v>
+      </c>
+      <c r="BF76">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -191,6 +191,12 @@
     <t>ignores_caps</t>
   </si>
   <si>
+    <t>can_use_on_other_items</t>
+  </si>
+  <si>
+    <t>holy_level</t>
+  </si>
+  <si>
     <t>Weapon Smiths Book</t>
   </si>
   <si>
@@ -738,6 +744,60 @@
   </si>
   <si>
     <t>Well it's become corrupted, the alchemical process failed, but it seems to be emanating a strange glow of power.</t>
+  </si>
+  <si>
+    <t>Purgatory Smiths House Key</t>
+  </si>
+  <si>
+    <t>Lets you enter the house of the purgatory smith.</t>
+  </si>
+  <si>
+    <t>Smithies Hammer</t>
+  </si>
+  <si>
+    <t>This hammer belonged to the Blacksmith, but what is he doing out of Purgatory?</t>
+  </si>
+  <si>
+    <t>Smithies Iron Chunks</t>
+  </si>
+  <si>
+    <t>Funny that these should be found on surface. First his hammer is in Dungeons and now some of his components are on surface. What is happening?</t>
+  </si>
+  <si>
+    <t>Broken Smithies Anvil</t>
+  </si>
+  <si>
+    <t>How is this in the Wrecked Ship? What is going on? Someone scattered all the smithies tools across the various planes. Was it the Creator?</t>
+  </si>
+  <si>
+    <t>Smithies Dying Ember</t>
+  </si>
+  <si>
+    <t>Satans cage holds a lot of interesting things to say the least, how ever why is the Smithies Dying Ember here? Something smells off child.</t>
+  </si>
+  <si>
+    <t>Candle of the Smithy</t>
+  </si>
+  <si>
+    <t>This unique looking candle has some enchanted engravings on it ... Wait a minute, these are not just any engravings. Apparently, according to these etchings in the wax, "After The Creator escaped Purgatory, he stole the tools of the smithy and scattered them around the various planes So that no one could create the items needed to take down The Creator." Or something to that effect.</t>
+  </si>
+  <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>What an interesting and unique item to say the least child. Maybe the candle maker can make use of it?</t>
+  </si>
+  <si>
+    <t>Purgatories Cursed Candle</t>
+  </si>
+  <si>
+    <t>Having the Candle Maker apply the vial of water to this candle of yours has corrupted it further, but it seems to have done the trick. Enemies will have a harder time voiding you now.</t>
+  </si>
+  <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1133,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BF76"/>
+  <dimension ref="A1:BH85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,9 +1144,9 @@
     <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="48" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="370" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="455" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
@@ -1139,9 +1199,11 @@
     <col min="56" max="56" width="24" bestFit="true" customWidth="true" style="0"/>
     <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
     <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1316,22 +1378,28 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE2">
         <v>0.15</v>
@@ -1388,21 +1456,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:60">
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE3">
         <v>0.15</v>
@@ -1459,18 +1527,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:60">
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1524,21 +1592,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:60">
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE5">
         <v>0.15</v>
@@ -1595,21 +1663,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:60">
       <c r="D6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6">
         <v>0.15</v>
@@ -1666,21 +1734,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:60">
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AD7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE7">
         <v>0.15</v>
@@ -1737,21 +1805,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:60">
       <c r="D8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE8">
         <v>0.15</v>
@@ -1808,18 +1876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:60">
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1873,15 +1941,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:60">
       <c r="D10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1890,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1944,15 +2012,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:60">
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1961,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2012,15 +2080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:60">
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2029,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2080,15 +2148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:60">
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2148,15 +2216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:60">
       <c r="D14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2216,15 +2284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:60">
       <c r="D15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2236,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE15">
         <v>0.5</v>
@@ -2293,15 +2361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:60">
       <c r="D16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2313,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE16">
         <v>0.5</v>
@@ -2370,15 +2438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:60">
       <c r="D17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2390,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AD17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE17">
         <v>0.5</v>
@@ -2447,15 +2515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:60">
       <c r="D18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2467,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18">
         <v>0.5</v>
@@ -2524,15 +2592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:60">
       <c r="D19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2544,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="AD19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE19">
         <v>0.5</v>
@@ -2601,15 +2669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:60">
       <c r="D20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2618,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE20">
         <v>0.5</v>
@@ -2675,15 +2743,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:60">
       <c r="D21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2743,15 +2811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:60">
       <c r="D22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2760,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2811,15 +2879,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:60">
       <c r="D23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2834,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AE23">
         <v>0.45</v>
@@ -2891,15 +2959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:60">
       <c r="D24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2914,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AE24">
         <v>0.45</v>
@@ -2971,15 +3039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:60">
       <c r="D25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2994,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3045,30 +3113,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:60">
       <c r="D26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>123</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>121</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3119,15 +3187,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:60">
       <c r="D27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3142,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3193,15 +3261,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:60">
       <c r="D28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3216,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3267,15 +3335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:60">
       <c r="D29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3338,15 +3406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:60">
       <c r="D30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3361,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3412,15 +3480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:60">
       <c r="D31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3435,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3486,15 +3554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:60">
       <c r="D32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3509,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3560,15 +3628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:60">
       <c r="D33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3631,15 +3699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:60">
       <c r="D34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3702,15 +3770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:60">
       <c r="D35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3773,15 +3841,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:60">
       <c r="D36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3796,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3847,15 +3915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:60">
       <c r="D37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3918,385 +3986,385 @@
         <v>0</v>
       </c>
       <c r="BD37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60">
       <c r="D38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60">
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60">
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60">
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60">
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="s">
         <v>152</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:58">
-      <c r="D39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>155</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:58">
-      <c r="D40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58">
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:58">
-      <c r="D42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:58">
+    </row>
+    <row r="43" spans="1:60">
       <c r="D43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4311,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AE43">
         <v>0.25</v>
@@ -4368,18 +4436,18 @@
         <v>0</v>
       </c>
       <c r="BD43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:58">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60">
       <c r="D44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4394,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AE44">
         <v>0.75</v>
@@ -4451,18 +4519,18 @@
         <v>0</v>
       </c>
       <c r="BD44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60">
       <c r="D45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4525,15 +4593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:60">
       <c r="D46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4548,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AE46">
         <v>0.75</v>
@@ -4605,15 +4673,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:60">
       <c r="D47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4628,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4679,15 +4747,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:60">
       <c r="D48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4702,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4753,15 +4821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" spans="1:60">
       <c r="D49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4824,15 +4892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:60">
       <c r="D50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4895,18 +4963,18 @@
         <v>0</v>
       </c>
       <c r="BD50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60">
       <c r="D51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4969,15 +5037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" spans="1:60">
       <c r="D52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5040,18 +5108,18 @@
         <v>0</v>
       </c>
       <c r="BD52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:58">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60">
       <c r="D53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5114,15 +5182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58">
+    <row r="54" spans="1:60">
       <c r="D54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5185,15 +5253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58">
+    <row r="55" spans="1:60">
       <c r="D55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5256,18 +5324,18 @@
         <v>0</v>
       </c>
       <c r="BD55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60">
       <c r="D56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5330,18 +5398,18 @@
         <v>0</v>
       </c>
       <c r="BD56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:58">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60">
       <c r="D57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5404,18 +5472,18 @@
         <v>0</v>
       </c>
       <c r="BD57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:58">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60">
       <c r="D58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5481,15 +5549,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:58">
+    <row r="59" spans="1:60">
       <c r="D59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5552,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="BD59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60">
       <c r="D60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5626,18 +5694,18 @@
         <v>0</v>
       </c>
       <c r="BD60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60">
       <c r="D61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5700,18 +5768,18 @@
         <v>0</v>
       </c>
       <c r="BD61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60">
       <c r="D62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5777,15 +5845,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:58">
+    <row r="63" spans="1:60">
       <c r="D63" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5848,18 +5916,18 @@
         <v>0</v>
       </c>
       <c r="BD63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60">
       <c r="D64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5925,15 +5993,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:58">
+    <row r="65" spans="1:60">
       <c r="D65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5945,21 +6013,69 @@
         <v>0</v>
       </c>
       <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
         <v>0</v>
       </c>
       <c r="BE65">
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:58">
+    <row r="66" spans="1:60">
       <c r="D66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5971,21 +6087,69 @@
         <v>0</v>
       </c>
       <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
         <v>0</v>
       </c>
       <c r="BE66">
         <v>0.8</v>
       </c>
     </row>
-    <row r="67" spans="1:58">
+    <row r="67" spans="1:60">
       <c r="D67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6000,18 +6164,66 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:58">
+        <v>223</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60">
       <c r="D68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6025,19 +6237,67 @@
       <c r="W68">
         <v>0</v>
       </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
       <c r="BD68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60">
       <c r="D69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6051,19 +6311,67 @@
       <c r="W69">
         <v>0</v>
       </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
       <c r="BD69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60">
       <c r="D70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6077,16 +6385,64 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:58">
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60">
       <c r="D71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6101,18 +6457,66 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:58">
+        <v>232</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:60">
       <c r="D72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6126,8 +6530,56 @@
       <c r="W72">
         <v>0</v>
       </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
       <c r="BD72" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BE72">
         <v>0.05</v>
@@ -6136,15 +6588,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:58">
+    <row r="73" spans="1:60">
       <c r="D73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6156,6 +6608,54 @@
         <v>0</v>
       </c>
       <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
         <v>0</v>
       </c>
       <c r="BE73">
@@ -6165,15 +6665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:60">
       <c r="D74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6187,8 +6687,56 @@
       <c r="W74">
         <v>0</v>
       </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
       <c r="BD74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BE74">
         <v>0.15</v>
@@ -6197,15 +6745,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:58">
+    <row r="75" spans="1:60">
       <c r="D75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6217,6 +6765,54 @@
         <v>0</v>
       </c>
       <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
         <v>0</v>
       </c>
       <c r="BE75">
@@ -6226,15 +6822,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:58">
+    <row r="76" spans="1:60">
       <c r="D76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6246,6 +6842,54 @@
         <v>0</v>
       </c>
       <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
         <v>0</v>
       </c>
       <c r="BE76">
@@ -6253,6 +6897,243 @@
       </c>
       <c r="BF76">
         <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:60">
+      <c r="D77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60">
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" t="s">
+        <v>246</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60">
+      <c r="D79" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
+        <v>248</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:60">
+      <c r="D80" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" t="s">
+        <v>250</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:60">
+      <c r="D81" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
+        <v>252</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:60">
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" t="s">
+        <v>254</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0.25</v>
+      </c>
+      <c r="BF82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:60">
+      <c r="D83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" t="s">
+        <v>256</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60">
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" t="s">
+        <v>258</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0.35</v>
+      </c>
+      <c r="BE84">
+        <v>1.6</v>
+      </c>
+      <c r="BF84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60">
+      <c r="D85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" t="s">
+        <v>260</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>holy_level</t>
+  </si>
+  <si>
+    <t>holy_stacks</t>
   </si>
   <si>
     <t>Weapon Smiths Book</t>
@@ -1133,7 +1136,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BH85"/>
+  <dimension ref="A1:BI85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,9 +1204,10 @@
     <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,22 +1388,25 @@
       <c r="BH1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:60">
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE2">
         <v>0.15</v>
@@ -1455,22 +1462,25 @@
       <c r="BC2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:60">
+      <c r="BI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE3">
         <v>0.15</v>
@@ -1526,19 +1536,22 @@
       <c r="BC3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="BI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1591,22 +1604,25 @@
       <c r="BC4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:60">
+      <c r="BI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
       <c r="D5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5">
         <v>0.15</v>
@@ -1662,22 +1678,25 @@
       <c r="BC5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:60">
+      <c r="BI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6">
         <v>0.15</v>
@@ -1733,22 +1752,25 @@
       <c r="BC6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:60">
+      <c r="BI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AD7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7">
         <v>0.15</v>
@@ -1804,22 +1826,25 @@
       <c r="BC7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:60">
+      <c r="BI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
       <c r="D8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8">
         <v>0.15</v>
@@ -1875,19 +1900,22 @@
       <c r="BC8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:60">
+      <c r="BI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1940,16 +1968,19 @@
       <c r="BC9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:60">
+      <c r="BI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1958,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -2011,16 +2042,19 @@
       <c r="BC10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:60">
+      <c r="BI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2029,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2079,16 +2113,19 @@
       <c r="BC11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:60">
+      <c r="BI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2097,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2147,16 +2184,19 @@
       <c r="BC12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:60">
+      <c r="BI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
       <c r="D13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2215,16 +2255,19 @@
       <c r="BC13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:60">
+      <c r="BI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
       <c r="D14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2283,16 +2326,19 @@
       <c r="BC14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:60">
+      <c r="BI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2304,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE15">
         <v>0.5</v>
@@ -2360,16 +2406,19 @@
       <c r="BC15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:60">
+      <c r="BI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61">
       <c r="D16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2381,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE16">
         <v>0.5</v>
@@ -2437,16 +2486,19 @@
       <c r="BC16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:60">
+      <c r="BI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61">
       <c r="D17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2458,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="AD17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE17">
         <v>0.5</v>
@@ -2514,16 +2566,19 @@
       <c r="BC17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:60">
+      <c r="BI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
       <c r="D18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2535,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18">
         <v>0.5</v>
@@ -2591,16 +2646,19 @@
       <c r="BC18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:60">
+      <c r="BI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61">
       <c r="D19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2612,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AD19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19">
         <v>0.5</v>
@@ -2668,16 +2726,19 @@
       <c r="BC19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:60">
+      <c r="BI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61">
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2686,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20">
         <v>0.5</v>
@@ -2742,16 +2803,19 @@
       <c r="BC20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:60">
+      <c r="BI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="D21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2810,16 +2874,19 @@
       <c r="BC21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:60">
+      <c r="BI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61">
       <c r="D22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2828,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2878,16 +2945,19 @@
       <c r="BC22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:60">
+      <c r="BI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61">
       <c r="D23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2902,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE23">
         <v>0.45</v>
@@ -2958,16 +3028,19 @@
       <c r="BC23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:60">
+      <c r="BI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61">
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2982,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE24">
         <v>0.45</v>
@@ -3038,16 +3111,19 @@
       <c r="BC24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:60">
+      <c r="BI24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61">
       <c r="D25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3062,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3112,31 +3188,34 @@
       <c r="BC25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:60">
+      <c r="BI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61">
       <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>123</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3186,16 +3265,19 @@
       <c r="BC26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:60">
+      <c r="BI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61">
       <c r="D27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3210,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3260,16 +3342,19 @@
       <c r="BC27">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:60">
+      <c r="BI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61">
       <c r="D28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3284,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3334,16 +3419,19 @@
       <c r="BC28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:60">
+      <c r="BI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61">
       <c r="D29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3405,16 +3493,19 @@
       <c r="BC29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:60">
+      <c r="BI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61">
       <c r="D30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3429,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3479,16 +3570,19 @@
       <c r="BC30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:60">
+      <c r="BI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61">
       <c r="D31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3503,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3553,16 +3647,19 @@
       <c r="BC31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:60">
+      <c r="BI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61">
       <c r="D32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3577,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3627,16 +3724,19 @@
       <c r="BC32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:60">
+      <c r="BI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61">
       <c r="D33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3698,16 +3798,19 @@
       <c r="BC33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:60">
+      <c r="BI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61">
       <c r="D34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3769,16 +3872,19 @@
       <c r="BC34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:60">
+      <c r="BI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61">
       <c r="D35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3840,16 +3946,19 @@
       <c r="BC35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:60">
+      <c r="BI35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61">
       <c r="D36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3864,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3914,16 +4023,19 @@
       <c r="BC36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:60">
+      <c r="BI36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61">
       <c r="D37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3986,385 +4098,403 @@
         <v>0</v>
       </c>
       <c r="BD37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:60">
+        <v>153</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61">
       <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61">
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61">
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61">
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61">
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="s">
         <v>153</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>154</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:60">
-      <c r="D39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:60">
-      <c r="D40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" t="s">
-        <v>159</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:60">
-      <c r="D41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" t="s">
-        <v>162</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:60">
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" t="s">
-        <v>165</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:60">
+      <c r="BI42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61">
       <c r="D43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4379,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE43">
         <v>0.25</v>
@@ -4436,18 +4566,21 @@
         <v>0</v>
       </c>
       <c r="BD43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:60">
+        <v>170</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61">
       <c r="D44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4462,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AE44">
         <v>0.75</v>
@@ -4519,18 +4652,21 @@
         <v>0</v>
       </c>
       <c r="BD44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61">
       <c r="D45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4592,16 +4728,19 @@
       <c r="BC45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:60">
+      <c r="BI45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61">
       <c r="D46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4616,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE46">
         <v>0.75</v>
@@ -4672,16 +4811,19 @@
       <c r="BC46">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:60">
+      <c r="BI46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61">
       <c r="D47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4696,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4746,16 +4888,19 @@
       <c r="BC47">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="48" spans="1:60">
+      <c r="BI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61">
       <c r="D48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4770,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4820,16 +4965,19 @@
       <c r="BC48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:60">
+      <c r="BI48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61">
       <c r="D49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4891,16 +5039,19 @@
       <c r="BC49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:60">
+      <c r="BI49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61">
       <c r="D50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4963,18 +5114,21 @@
         <v>0</v>
       </c>
       <c r="BD50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:60">
+        <v>189</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61">
       <c r="D51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5036,16 +5190,19 @@
       <c r="BC51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:60">
+      <c r="BI51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61">
       <c r="D52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5108,18 +5265,21 @@
         <v>0</v>
       </c>
       <c r="BD52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:60">
+        <v>170</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61">
       <c r="D53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5181,16 +5341,19 @@
       <c r="BC53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:60">
+      <c r="BI53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61">
       <c r="D54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5252,16 +5415,19 @@
       <c r="BC54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:60">
+      <c r="BI54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61">
       <c r="D55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5324,18 +5490,21 @@
         <v>0</v>
       </c>
       <c r="BD55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61">
       <c r="D56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5398,18 +5567,21 @@
         <v>0</v>
       </c>
       <c r="BD56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:60">
+        <v>161</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61">
       <c r="D57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5472,18 +5644,21 @@
         <v>0</v>
       </c>
       <c r="BD57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:60">
+        <v>170</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61">
       <c r="D58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5548,16 +5723,19 @@
       <c r="BE58">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="59" spans="1:60">
+      <c r="BI58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61">
       <c r="D59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5620,18 +5798,21 @@
         <v>0</v>
       </c>
       <c r="BD59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:60">
+        <v>189</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61">
       <c r="D60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5694,18 +5875,21 @@
         <v>0</v>
       </c>
       <c r="BD60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:60">
+        <v>189</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61">
       <c r="D61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5768,18 +5952,21 @@
         <v>0</v>
       </c>
       <c r="BD61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61">
       <c r="D62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5844,16 +6031,19 @@
       <c r="BE62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:60">
+      <c r="BI62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61">
       <c r="D63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5916,18 +6106,21 @@
         <v>0</v>
       </c>
       <c r="BD63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61">
       <c r="D64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5992,16 +6185,19 @@
       <c r="BE64">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:60">
+      <c r="BI64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61">
       <c r="D65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6066,16 +6262,19 @@
       <c r="BE65">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="66" spans="1:60">
+      <c r="BI65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61">
       <c r="D66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6140,16 +6339,19 @@
       <c r="BE66">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:60">
+      <c r="BI66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61">
       <c r="D67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6164,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6214,16 +6416,19 @@
       <c r="BC67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:60">
+      <c r="BI67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61">
       <c r="D68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6286,18 +6491,21 @@
         <v>0</v>
       </c>
       <c r="BD68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61">
       <c r="D69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6360,18 +6568,21 @@
         <v>0</v>
       </c>
       <c r="BD69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:60">
+        <v>189</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61">
       <c r="D70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6433,16 +6644,19 @@
       <c r="BC70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:60">
+      <c r="BI70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61">
       <c r="D71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6457,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6507,16 +6721,19 @@
       <c r="BC71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:60">
+      <c r="BI71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61">
       <c r="D72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6579,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="BD72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BE72">
         <v>0.05</v>
@@ -6587,16 +6804,19 @@
       <c r="BF72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:60">
+      <c r="BI72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61">
       <c r="D73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6664,16 +6884,19 @@
       <c r="BF73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:60">
+      <c r="BI73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61">
       <c r="D74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6736,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="BD74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BE74">
         <v>0.15</v>
@@ -6744,16 +6967,19 @@
       <c r="BF74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:60">
+      <c r="BI74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61">
       <c r="D75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6821,16 +7047,19 @@
       <c r="BF75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:60">
+      <c r="BI75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:61">
       <c r="D76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6898,16 +7127,19 @@
       <c r="BF76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:60">
+      <c r="BI76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:61">
       <c r="D77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -6921,16 +7153,19 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:60">
+      <c r="BI77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:61">
       <c r="D78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6945,18 +7180,21 @@
         <v>0</v>
       </c>
       <c r="BD78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:60">
+        <v>156</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61">
       <c r="D79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -6971,18 +7209,21 @@
         <v>0</v>
       </c>
       <c r="BD79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:60">
+        <v>170</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:61">
       <c r="D80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -6997,18 +7238,21 @@
         <v>0</v>
       </c>
       <c r="BD80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:60">
+        <v>161</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61">
       <c r="D81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7023,18 +7267,21 @@
         <v>0</v>
       </c>
       <c r="BD81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:60">
+        <v>153</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:61">
       <c r="D82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7054,16 +7301,19 @@
       <c r="BF82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:60">
+      <c r="BI82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:61">
       <c r="D83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7077,16 +7327,19 @@
       <c r="W83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:60">
+      <c r="BI83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:61">
       <c r="D84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7109,16 +7362,19 @@
       <c r="BF84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:60">
+      <c r="BI84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:61">
       <c r="D85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7133,7 +7389,10 @@
         <v>0</v>
       </c>
       <c r="BD85" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -7153,6 +7153,54 @@
       <c r="W77">
         <v>0</v>
       </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
       <c r="BI77">
         <v>0</v>
       </c>
@@ -7179,6 +7227,54 @@
       <c r="W78">
         <v>0</v>
       </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
       <c r="BD78" t="s">
         <v>156</v>
       </c>
@@ -7208,6 +7304,54 @@
       <c r="W79">
         <v>0</v>
       </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
       <c r="BD79" t="s">
         <v>170</v>
       </c>
@@ -7237,6 +7381,54 @@
       <c r="W80">
         <v>0</v>
       </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
       <c r="BD80" t="s">
         <v>161</v>
       </c>
@@ -7266,6 +7458,54 @@
       <c r="W81">
         <v>0</v>
       </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
       <c r="BD81" t="s">
         <v>153</v>
       </c>
@@ -7295,6 +7535,54 @@
       <c r="W82">
         <v>0</v>
       </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
       <c r="BE82">
         <v>0.25</v>
       </c>
@@ -7327,6 +7615,54 @@
       <c r="W83">
         <v>0</v>
       </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
       <c r="BI83">
         <v>0</v>
       </c>
@@ -7353,6 +7689,51 @@
       <c r="W84">
         <v>0</v>
       </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
       <c r="BC84">
         <v>0.35</v>
       </c>
@@ -7386,6 +7767,54 @@
         <v>0</v>
       </c>
       <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
         <v>0</v>
       </c>
       <c r="BD85" t="s">

--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -476,48 +476,51 @@
     <t>There are two of these keys now. If the last one gets you boots, what could this one unlock?</t>
   </si>
   <si>
+    <t>Labyrinth Maze</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
+  </si>
+  <si>
+    <t>Dungeons of Valifore</t>
+  </si>
+  <si>
+    <t>Dead Fiends Hide</t>
+  </si>
+  <si>
+    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
+  </si>
+  <si>
+    <t>Wrecked Ship</t>
+  </si>
+  <si>
+    <t>Purgatories Lantern</t>
+  </si>
+  <si>
+    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
+  </si>
+  <si>
+    <t>purgatory</t>
+  </si>
+  <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
+  </si>
+  <si>
     <t>Satans Cage</t>
   </si>
   <si>
-    <t>Purse of Copper Coins</t>
-  </si>
-  <si>
-    <t>Keys and coins, coins and keys. The Hells Gate Keeper should know what to do with these no?</t>
-  </si>
-  <si>
-    <t>Dungeons of Valifore</t>
-  </si>
-  <si>
-    <t>Dead Fiends Hide</t>
-  </si>
-  <si>
-    <t>The hide of one of the many creatures you have killed. Why would you be given this? Maybe take it to the Weaver?</t>
-  </si>
-  <si>
-    <t>Book of the Dead Souls</t>
-  </si>
-  <si>
-    <t>Why on earth would you ever want this item? You open it only to see nothing but thousands of tormented souls screaming back at you.... Oh the Weaver want's this, never kind child.</t>
-  </si>
-  <si>
-    <t>Wrecked Ship</t>
-  </si>
-  <si>
-    <t>Purgatories Lantern</t>
-  </si>
-  <si>
-    <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
-  </si>
-  <si>
-    <t>purgatory</t>
-  </si>
-  <si>
-    <t>Purse of Shards and Dust</t>
-  </si>
-  <si>
-    <t>This is a purse of Shards and Gold Dust that must have dropped from some fiend who then stole it from a treasure hunter. Take this to Hells Gate Keeper</t>
-  </si>
-  <si>
     <t>Bag of Child's Bones</t>
   </si>
   <si>
@@ -584,9 +587,6 @@
     <t>I know for a fact someone, some where wanted this. Christ, what was his name again? Lord of something ..... ???</t>
   </si>
   <si>
-    <t>Labyrinth Maze</t>
-  </si>
-  <si>
     <t>Scroll of Prayer</t>
   </si>
   <si>
@@ -801,6 +801,114 @@
   </si>
   <si>
     <t>I have heard of this item child, it's used to combine a whole bunch of items into a single item. Maybe this is what is needed, in conjunction with all the other Smithy items you have been finding.</t>
+  </si>
+  <si>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Accuracy. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Tome of the Winds</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP and 25% chance towards Dodge. You can then further upgrade this item to give you 50, 100 and 125% towards XP. How ever you will loose the bonus upon the first upgrade.</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Kings Book of Hope</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Kingmanship. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 25% XP towards Quick Feet. You can then further upgrade this item to give you 50, 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Sky Dragons Blood Vial</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Dodge. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>The Wizards Enchantment</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Dodge.</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP and 0% chance towards Accuracy. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.</t>
+  </si>
+  <si>
+    <t>Settlers Walking Stick</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Kingmanship. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Kings Scepter</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Kingmanship. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Kings Ring</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Kingmanship.</t>
+  </si>
+  <si>
+    <t>Alchemist Scrolls</t>
+  </si>
+  <si>
+    <t>Grants additional XP towards leveling the skill while making Alchemical items.</t>
+  </si>
+  <si>
+    <t>Mages Teleport Scroll</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 50% XP towards Quick Feet. You can then further upgrade this item to give you 100 and 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Goblins Quickening Rune</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 100% XP towards Quick Feet. You can then further upgrade this item to give you 125% towards XP.</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
+  </si>
+  <si>
+    <t>With this quest item you will automatically gain 125% XP towards Quick Feet.</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1244,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI85"/>
+  <dimension ref="A1:BI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4067,15 +4175,6 @@
       <c r="AO37">
         <v>0</v>
       </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
       <c r="AW37">
         <v>0</v>
       </c>
@@ -4480,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="BD42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="BI42">
         <v>0</v>
@@ -4488,13 +4587,13 @@
     </row>
     <row r="43" spans="1:61">
       <c r="D43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
         <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4509,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE43">
         <v>0.25</v>
@@ -4566,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="BD43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI43">
         <v>0</v>
@@ -4574,13 +4673,13 @@
     </row>
     <row r="44" spans="1:61">
       <c r="D44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4595,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AE44">
         <v>0.75</v>
@@ -4660,13 +4759,13 @@
     </row>
     <row r="45" spans="1:61">
       <c r="D45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4734,13 +4833,13 @@
     </row>
     <row r="46" spans="1:61">
       <c r="D46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4755,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE46">
         <v>0.75</v>
@@ -4817,13 +4916,13 @@
     </row>
     <row r="47" spans="1:61">
       <c r="D47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4838,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4894,13 +4993,13 @@
     </row>
     <row r="48" spans="1:61">
       <c r="D48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
         <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4915,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4971,13 +5070,13 @@
     </row>
     <row r="49" spans="1:61">
       <c r="D49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5045,13 +5144,13 @@
     </row>
     <row r="50" spans="1:61">
       <c r="D50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
         <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5114,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="BD50" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="BI50">
         <v>0</v>
@@ -5265,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="BD52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI52">
         <v>0</v>
@@ -5644,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="BD57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI57">
         <v>0</v>
@@ -5798,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="BD59" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="BI59">
         <v>0</v>
@@ -5875,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="BD60" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="BI60">
         <v>0</v>
@@ -6568,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="BD69" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="BI69">
         <v>0</v>
@@ -6959,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="BD74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BE74">
         <v>0.15</v>
@@ -7353,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="BD79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI79">
         <v>0</v>
@@ -7476,15 +7575,6 @@
       <c r="AO81">
         <v>0</v>
       </c>
-      <c r="AR81">
-        <v>0</v>
-      </c>
-      <c r="AT81">
-        <v>0</v>
-      </c>
-      <c r="AU81">
-        <v>0</v>
-      </c>
       <c r="AW81">
         <v>0</v>
       </c>
@@ -7507,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="BD81" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BI81">
         <v>0</v>
@@ -7633,15 +7723,6 @@
       <c r="AO83">
         <v>0</v>
       </c>
-      <c r="AR83">
-        <v>0</v>
-      </c>
-      <c r="AT83">
-        <v>0</v>
-      </c>
-      <c r="AU83">
-        <v>0</v>
-      </c>
       <c r="AW83">
         <v>0</v>
       </c>
@@ -7662,6 +7743,9 @@
       </c>
       <c r="BC83">
         <v>0</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>167</v>
       </c>
       <c r="BI83">
         <v>0</v>
@@ -7787,15 +7871,6 @@
       <c r="AO85">
         <v>0</v>
       </c>
-      <c r="AR85">
-        <v>0</v>
-      </c>
-      <c r="AT85">
-        <v>0</v>
-      </c>
-      <c r="AU85">
-        <v>0</v>
-      </c>
       <c r="AW85">
         <v>0</v>
       </c>
@@ -7818,9 +7893,562 @@
         <v>0</v>
       </c>
       <c r="BD85" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BI85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:61">
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" t="s">
+        <v>263</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE86">
+        <v>0.25</v>
+      </c>
+      <c r="AK86">
+        <v>0.25</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:61">
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" t="s">
+        <v>265</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE87">
+        <v>0.25</v>
+      </c>
+      <c r="AK87">
+        <v>0.25</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61">
+      <c r="D88" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>268</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK88">
+        <v>0.25</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:61">
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK89">
+        <v>0.25</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:61">
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>273</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK90">
+        <v>0.5</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61">
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" t="s">
+        <v>275</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:61">
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" t="s">
+        <v>277</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK92">
+        <v>1.25</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:61">
+      <c r="D93" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" t="s">
+        <v>279</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK93">
+        <v>0.5</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:61">
+      <c r="D94" t="s">
+        <v>280</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" t="s">
+        <v>281</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:61">
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" t="s">
+        <v>283</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK95">
+        <v>1.25</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:61">
+      <c r="D96" t="s">
+        <v>284</v>
+      </c>
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>285</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK96">
+        <v>0.5</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:61">
+      <c r="D97" t="s">
+        <v>286</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
+        <v>287</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:61">
+      <c r="D98" t="s">
+        <v>288</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" t="s">
+        <v>289</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK98">
+        <v>1.25</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:61">
+      <c r="D99" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s">
+        <v>291</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE99">
+        <v>0.5</v>
+      </c>
+      <c r="AK99">
+        <v>1.1</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:61">
+      <c r="D100" t="s">
+        <v>292</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" t="s">
+        <v>293</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK100">
+        <v>0.5</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:61">
+      <c r="D101" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" t="s">
+        <v>295</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:61">
+      <c r="D102" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F102" t="s">
+        <v>297</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK102">
+        <v>1.25</v>
+      </c>
+      <c r="BI102">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items/QuestItems.xlsx
+++ b/resources/data-imports/items/QuestItems.xlsx
@@ -7927,8 +7927,56 @@
       <c r="AE86">
         <v>0.25</v>
       </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
       <c r="AK86">
         <v>0.25</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
       </c>
       <c r="BI86">
         <v>0</v>
@@ -7962,8 +8010,56 @@
       <c r="AE87">
         <v>0.25</v>
       </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
       <c r="AK87">
         <v>0.25</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
       </c>
       <c r="BI87">
         <v>0</v>
@@ -7994,8 +8090,56 @@
       <c r="AD88" t="s">
         <v>170</v>
       </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
       <c r="AK88">
         <v>0.25</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
       </c>
       <c r="BI88">
         <v>0</v>
@@ -8026,8 +8170,56 @@
       <c r="AD89" t="s">
         <v>271</v>
       </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
       <c r="AK89">
         <v>0.25</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>0</v>
       </c>
       <c r="BI89">
         <v>0</v>
@@ -8058,8 +8250,56 @@
       <c r="AD90" t="s">
         <v>266</v>
       </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
       <c r="AK90">
         <v>0.5</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>0</v>
       </c>
       <c r="BI90">
         <v>0</v>
@@ -8090,8 +8330,56 @@
       <c r="AD91" t="s">
         <v>266</v>
       </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
       <c r="AK91">
         <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
       </c>
       <c r="BI91">
         <v>0</v>
@@ -8122,8 +8410,56 @@
       <c r="AD92" t="s">
         <v>266</v>
       </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
       <c r="AK92">
         <v>1.25</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
       </c>
       <c r="BI92">
         <v>0</v>
@@ -8154,8 +8490,56 @@
       <c r="AD93" t="s">
         <v>179</v>
       </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
       <c r="AK93">
         <v>0.5</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
       </c>
       <c r="BI93">
         <v>0</v>
@@ -8186,8 +8570,56 @@
       <c r="AD94" t="s">
         <v>179</v>
       </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
       <c r="AK94">
         <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
       </c>
       <c r="BI94">
         <v>0</v>
@@ -8218,8 +8650,56 @@
       <c r="AD95" t="s">
         <v>179</v>
       </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
       <c r="AK95">
         <v>1.25</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
       </c>
       <c r="BI95">
         <v>0</v>
@@ -8250,8 +8730,56 @@
       <c r="AD96" t="s">
         <v>170</v>
       </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
       <c r="AK96">
         <v>0.5</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
       </c>
       <c r="BI96">
         <v>0</v>
@@ -8282,8 +8810,56 @@
       <c r="AD97" t="s">
         <v>170</v>
       </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
       <c r="AK97">
         <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
       </c>
       <c r="BI97">
         <v>0</v>
@@ -8314,8 +8890,56 @@
       <c r="AD98" t="s">
         <v>170</v>
       </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
       <c r="AK98">
         <v>1.25</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
       </c>
       <c r="BI98">
         <v>0</v>
@@ -8349,8 +8973,56 @@
       <c r="AE99">
         <v>0.5</v>
       </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
       <c r="AK99">
         <v>1.1</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>0</v>
       </c>
       <c r="BI99">
         <v>0</v>
@@ -8381,8 +9053,56 @@
       <c r="AD100" t="s">
         <v>271</v>
       </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
       <c r="AK100">
         <v>0.5</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <v>0</v>
+      </c>
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>0</v>
       </c>
       <c r="BI100">
         <v>0</v>
@@ -8413,8 +9133,56 @@
       <c r="AD101" t="s">
         <v>271</v>
       </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
       <c r="AK101">
         <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>0</v>
       </c>
       <c r="BI101">
         <v>0</v>
@@ -8445,8 +9213,56 @@
       <c r="AD102" t="s">
         <v>271</v>
       </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
       <c r="AK102">
         <v>1.25</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>0</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>0</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>0</v>
       </c>
       <c r="BI102">
         <v>0</v>
